--- a/Solution_Design/Story Board/Storys/RA-35-Schwarzes Brett/Version 2. der Anwendung/Datenmodell.xlsx
+++ b/Solution_Design/Story Board/Storys/RA-35-Schwarzes Brett/Version 2. der Anwendung/Datenmodell.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="106">
   <si>
     <t>Kurzbeschreibung</t>
   </si>
@@ -298,9 +298,6 @@
   </si>
   <si>
     <t>Kommentar</t>
-  </si>
-  <si>
-    <t>Beschreibt, in welchen Locations Autoren dieses Vereins Schreiben dürfen</t>
   </si>
   <si>
     <t>Erstellungsdatum dieser Sprachversion</t>
@@ -317,6 +314,42 @@
    Registrierte überspringen Status 2 und gehen direkt public
   3-gepublished/
   4-disabled)</t>
+  </si>
+  <si>
+    <t>Kontakt-Name</t>
+  </si>
+  <si>
+    <t>Name&amp; Nachname eines Ansprechaprtner für Rückfragen</t>
+  </si>
+  <si>
+    <t>Kontakt-Email</t>
+  </si>
+  <si>
+    <t>Emailaddresse eines Ansprechaprtner für Rückfragen</t>
+  </si>
+  <si>
+    <t>Telefonnnummer</t>
+  </si>
+  <si>
+    <t>number(20)</t>
+  </si>
+  <si>
+    <t>Beschreibt, in welchen Locations Autoren dieses Vereins Schreiben dürfen(Bundslandspezifisch)</t>
+  </si>
+  <si>
+    <t>1-angelegt, noch nicht freigegeben
+2-freigegeben
+4- gesperrt</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>boolwert</t>
+  </si>
+  <si>
+    <t>0-Autor
+1-Admin</t>
   </si>
 </sst>
 </file>
@@ -772,7 +805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -827,36 +860,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -882,26 +885,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1188,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q30"/>
+  <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.21875" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1212,27 +1252,27 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="G3" s="43" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="G3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
-      <c r="M3" s="40" t="s">
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="M3" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="1:17" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
@@ -1368,18 +1408,18 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
+      <c r="A7" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="9" t="s">
-        <v>27</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="47"/>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>50</v>
@@ -1394,44 +1434,50 @@
       <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="42"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="59"/>
     </row>
     <row r="10" spans="1:17" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
       <c r="M10" s="29" t="s">
         <v>33</v>
       </c>
@@ -1441,29 +1487,21 @@
       <c r="O10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="38" t="s">
+      <c r="P10" s="63" t="s">
         <v>28</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
+    <row r="11" spans="1:17" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
       <c r="G11" s="26" t="s">
         <v>57</v>
       </c>
@@ -1488,22 +1526,26 @@
       <c r="O11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="39"/>
+      <c r="P11" s="64"/>
       <c r="Q11" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
+      <c r="C12" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>59</v>
@@ -1533,18 +1575,16 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="60" t="s">
-        <v>67</v>
+      <c r="A13" s="34" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="57"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>14</v>
@@ -1570,55 +1610,55 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>23</v>
+      <c r="A14" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="9" t="s">
-        <v>27</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="47"/>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
     </row>
     <row r="16" spans="1:17" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>57</v>
@@ -1626,7 +1666,7 @@
       <c r="H16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="69" t="s">
         <v>45</v>
       </c>
       <c r="J16" s="12" t="s">
@@ -1638,17 +1678,17 @@
     </row>
     <row r="17" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>62</v>
@@ -1656,7 +1696,7 @@
       <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="37"/>
+      <c r="I17" s="68"/>
       <c r="J17" s="11" t="s">
         <v>27</v>
       </c>
@@ -1666,17 +1706,17 @@
     </row>
     <row r="18" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>63</v>
@@ -1693,44 +1733,50 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
     </row>
     <row r="21" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="36" t="s">
         <v>80</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="63" t="s">
+      <c r="I21" s="52" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="12" t="s">
@@ -1741,210 +1787,277 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="47" t="s">
+      <c r="A22" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="G22" s="37" t="s">
         <v>81</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="61"/>
+      <c r="I22" s="50"/>
       <c r="J22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="64"/>
+      <c r="K22" s="53"/>
     </row>
     <row r="23" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="34" t="s">
-        <v>69</v>
+      <c r="A23" s="45" t="s">
+        <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="47" t="s">
+      <c r="C23" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="37" t="s">
         <v>84</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="58"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="30" t="s">
-        <v>70</v>
+      <c r="A24" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="56"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="56" t="s">
-        <v>78</v>
+      <c r="A25" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="49"/>
+      <c r="E25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="59"/>
+    </row>
+    <row r="28" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>83</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="20"/>
-      <c r="G26" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
-    </row>
-    <row r="27" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="20"/>
-      <c r="G27" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="20"/>
-      <c r="G28" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="66"/>
-    </row>
-    <row r="29" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="50" t="s">
-        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="20"/>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="66"/>
+    </row>
+    <row r="30" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="20"/>
+      <c r="G30" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="23"/>
-    </row>
-    <row r="30" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A22:E22"/>
     <mergeCell ref="G20:K20"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G15:K15"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M9:Q9"/>
     <mergeCell ref="P10:P11"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Solution_Design/Story Board/Storys/RA-35-Schwarzes Brett/Version 2. der Anwendung/Datenmodell.xlsx
+++ b/Solution_Design/Story Board/Storys/RA-35-Schwarzes Brett/Version 2. der Anwendung/Datenmodell.xlsx
@@ -23,8 +23,118 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nico Remus</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nico Remus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+N/M?
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nico Remus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Muss als n/m beziehung gebaut werden
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nico Remus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+N/M
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nico Remus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rolle/ID/GRUPPE???
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
   <si>
     <t>Kurzbeschreibung</t>
   </si>
@@ -255,9 +365,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>Nachname</t>
-  </si>
-  <si>
     <t>Emailaddresse</t>
   </si>
   <si>
@@ -309,60 +416,121 @@
     <t>Number(1)</t>
   </si>
   <si>
+    <t>Kontakt-Name</t>
+  </si>
+  <si>
+    <t>Name&amp; Nachname eines Ansprechaprtner für Rückfragen</t>
+  </si>
+  <si>
+    <t>Kontakt-Email</t>
+  </si>
+  <si>
+    <t>Emailaddresse eines Ansprechaprtner für Rückfragen</t>
+  </si>
+  <si>
+    <t>Telefonnnummer</t>
+  </si>
+  <si>
+    <t>number(20)</t>
+  </si>
+  <si>
+    <t>Beschreibt, in welchen Locations Autoren dieses Vereins Schreiben dürfen(Bundslandspezifisch)</t>
+  </si>
+  <si>
+    <t>0-Autor
+1-Admin</t>
+  </si>
+  <si>
+    <t>optional/uniqu</t>
+  </si>
+  <si>
+    <t>Array/STRING aller zughörigen PLZ</t>
+  </si>
+  <si>
+    <t>Numer(10)?</t>
+  </si>
+  <si>
+    <t>Desct</t>
+  </si>
+  <si>
+    <t>charchar(500)</t>
+  </si>
+  <si>
+    <t>Beschreibungstext der Kategorie</t>
+  </si>
+  <si>
+    <t>Rolle</t>
+  </si>
+  <si>
+    <t>number(2)</t>
+  </si>
+  <si>
+    <t>1-angelegt, noch nicht freigegeben
+2-freigegeben
+3- gesperrt</t>
+  </si>
+  <si>
+    <t>PW_Hash</t>
+  </si>
+  <si>
+    <t>Datenschutz???</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>ID des Artikelinitialiserenden Autors</t>
+  </si>
+  <si>
+    <t>Master_Autor_ID</t>
+  </si>
+  <si>
+    <t>published_Status</t>
+  </si>
+  <si>
     <t>1-noch in bearbeitung vom Autor/
-  2-Zum Moderatoren Preview frei[interessant für nicht registrierte]/
-   Registrierte überspringen Status 2 und gehen direkt public
+2-Zum Moderatoren Preview frei[interessant für nicht registrierte]/
+   Registrierte überspringen Status 2 und gehen direkt public(3)
   3-gepublished/
   4-disabled)</t>
   </si>
   <si>
-    <t>Kontakt-Name</t>
-  </si>
-  <si>
-    <t>Name&amp; Nachname eines Ansprechaprtner für Rückfragen</t>
-  </si>
-  <si>
-    <t>Kontakt-Email</t>
-  </si>
-  <si>
-    <t>Emailaddresse eines Ansprechaprtner für Rückfragen</t>
-  </si>
-  <si>
-    <t>Telefonnnummer</t>
-  </si>
-  <si>
-    <t>number(20)</t>
-  </si>
-  <si>
-    <t>Beschreibt, in welchen Locations Autoren dieses Vereins Schreiben dürfen(Bundslandspezifisch)</t>
-  </si>
-  <si>
-    <t>1-angelegt, noch nicht freigegeben
-2-freigegeben
-4- gesperrt</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>boolwert</t>
-  </si>
-  <si>
-    <t>0-Autor
-1-Admin</t>
+    <t>Language_Last_Change</t>
+  </si>
+  <si>
+    <t>Language_create_Date</t>
+  </si>
+  <si>
+    <t>Lease_time</t>
+  </si>
+  <si>
+    <t>Zeigt an, bis wann der Artikel sichtbar sein soll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -805,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -899,6 +1067,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -917,12 +1095,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -938,10 +1110,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1227,15 +1401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.21875" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="38.5546875" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" customWidth="1"/>
@@ -1252,27 +1427,27 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="G3" s="60" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="G3" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
-      <c r="M3" s="57" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="66"/>
+      <c r="M3" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63"/>
     </row>
     <row r="4" spans="1:17" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
@@ -1409,75 +1584,88 @@
     </row>
     <row r="7" spans="1:17" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="7" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>50</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="23"/>
+        <v>101</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
+      <c r="A8" s="37" t="s">
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="D8" s="47"/>
       <c r="E8" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="M9" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="63"/>
+    </row>
+    <row r="10" spans="1:17" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="59"/>
-    </row>
-    <row r="10" spans="1:17" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="66"/>
       <c r="M10" s="29" t="s">
         <v>33</v>
       </c>
@@ -1487,7 +1675,7 @@
       <c r="O10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="63" t="s">
+      <c r="P10" s="59" t="s">
         <v>28</v>
       </c>
       <c r="Q10" s="6" t="s">
@@ -1495,13 +1683,6 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
       <c r="G11" s="26" t="s">
         <v>57</v>
       </c>
@@ -1526,27 +1707,19 @@
       <c r="O11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="64"/>
+      <c r="P11" s="60"/>
       <c r="Q11" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A12" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
       <c r="G12" s="3" t="s">
         <v>59</v>
       </c>
@@ -1575,27 +1748,31 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="7" t="s">
-        <v>19</v>
+      <c r="C13" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="8" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>35</v>
@@ -1610,55 +1787,53 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="49" t="s">
-        <v>67</v>
+      <c r="A14" s="34" t="s">
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="G15" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+    </row>
+    <row r="16" spans="1:17" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-    </row>
-    <row r="16" spans="1:17" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>57</v>
@@ -1666,7 +1841,7 @@
       <c r="H16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="71" t="s">
         <v>45</v>
       </c>
       <c r="J16" s="12" t="s">
@@ -1678,17 +1853,17 @@
     </row>
     <row r="17" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>62</v>
@@ -1696,7 +1871,7 @@
       <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="68"/>
+      <c r="I17" s="70"/>
       <c r="J17" s="11" t="s">
         <v>27</v>
       </c>
@@ -1704,19 +1879,19 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>63</v>
@@ -1734,44 +1909,57 @@
     </row>
     <row r="19" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
+    </row>
+    <row r="21" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G21" s="36" t="s">
         <v>79</v>
-      </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
-    </row>
-    <row r="21" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G21" s="36" t="s">
-        <v>80</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>4</v>
@@ -1783,19 +1971,12 @@
         <v>27</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
       <c r="G22" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>10</v>
@@ -1807,23 +1988,15 @@
       <c r="K22" s="53"/>
     </row>
     <row r="23" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="A23" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
       <c r="G23" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>10</v>
@@ -1835,47 +2008,49 @@
       <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="34" t="s">
-        <v>69</v>
+      <c r="A24" s="45" t="s">
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="7" t="s">
-        <v>71</v>
+      <c r="C24" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I24" s="56"/>
-      <c r="J24" s="70"/>
+      <c r="J24" s="57"/>
       <c r="K24" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30" t="s">
-        <v>70</v>
+      <c r="A25" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>10</v>
@@ -1883,12 +2058,12 @@
       <c r="I25" s="54"/>
       <c r="J25" s="55"/>
       <c r="K25" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="46" t="s">
-        <v>78</v>
+      <c r="A26" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
@@ -1897,96 +2072,102 @@
         <v>38</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="39"/>
+      <c r="E26" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="59"/>
-    </row>
-    <row r="28" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="39"/>
+      <c r="G27" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="63"/>
+    </row>
+    <row r="28" spans="1:11" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="71" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>108</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G28" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I28" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="65" t="s">
-        <v>101</v>
+      <c r="K28" s="67" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="20"/>
+      <c r="A29" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>109</v>
+      </c>
       <c r="G29" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I29" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="66"/>
+      <c r="K29" s="68"/>
     </row>
     <row r="30" spans="1:11" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="44"/>
-      <c r="E30" s="20"/>
+      <c r="E30" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="G30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>10</v>
@@ -1997,32 +2178,34 @@
     </row>
     <row r="31" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="20"/>
+      <c r="E31" s="72" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
-        <v>74</v>
+      <c r="A32" t="s">
+        <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="44"/>
-      <c r="E32" s="20"/>
+      <c r="E32" s="73"/>
     </row>
     <row r="33" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="44"/>
@@ -2042,24 +2225,26 @@
       <c r="E34" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="G15:K15"/>
+  <mergeCells count="16">
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M9:Q9"/>
     <mergeCell ref="P10:P11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>